--- a/biology/Médecine/Besoin_d'attention/Besoin_d'attention.xlsx
+++ b/biology/Médecine/Besoin_d'attention/Besoin_d'attention.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Besoin_d%27attention</t>
+          <t>Besoin_d'attention</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le besoin d'attention (ou recherche d'attention) est un comportement vis-à-vis d'autrui. Si rechercher l'attention est socialement acceptable dans certaines situations[1], lorsqu'un tel comportement devient inapproprié ou excessif cela peut conduire à des difficultés  et mettre en évidence un problème pathologique[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le besoin d'attention (ou recherche d'attention) est un comportement vis-à-vis d'autrui. Si rechercher l'attention est socialement acceptable dans certaines situations, lorsqu'un tel comportement devient inapproprié ou excessif cela peut conduire à des difficultés  et mettre en évidence un problème pathologique. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Besoin_d%27attention</t>
+          <t>Besoin_d'attention</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Différents contextes et pathologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome de Münchhausen
 Syndrome de Münchhausen par procuration
 Trouble du déficit de l'attention
-Troubles de la personnalité, un grand degré de besoin d'attention chez les adultes, en particulier, trouble de la personnalité histrionique ; mais il peut être associé au trouble de la personnalité narcissique ou trouble de la personnalité borderline[3].</t>
+Troubles de la personnalité, un grand degré de besoin d'attention chez les adultes, en particulier, trouble de la personnalité histrionique ; mais il peut être associé au trouble de la personnalité narcissique ou trouble de la personnalité borderline.</t>
         </is>
       </c>
     </row>
